--- a/FRC调试表.xlsx
+++ b/FRC调试表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FRC\2022RapidReact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD3822A-056D-4194-9C7D-8D5555A70729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shooter&amp;Blocker" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,25 @@
     <sheet name="Turret" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>中文名称</t>
   </si>
@@ -185,20 +204,72 @@
   </si>
   <si>
     <t>encUnitsToTurretAngle</t>
+  </si>
+  <si>
+    <t>kP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kIntegralZone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MotionCruiseVelotiy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MotionAcceleration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VoltageCompSaturation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VoltageCompensation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peakOutputForward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peakOutputReverse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabeVoltageCompensation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorPhase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CruiseVelocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,155 +281,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,198 +302,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -607,255 +356,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,71 +378,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1222,30 +688,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9" style="1"/>
+    <col min="12" max="13" width="18.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,8 +737,32 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +797,7 @@
       </c>
       <c r="D3" s="1">
         <f>PI()*C3</f>
-        <v>0.339292006587698</v>
+        <v>0.33929200658769765</v>
       </c>
       <c r="E3" s="3">
         <f>60/32</f>
@@ -1313,8 +807,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1324,8 +818,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="3">
         <v>6400</v>
       </c>
@@ -1334,8 +828,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1345,8 +839,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="3">
         <v>1000</v>
       </c>
@@ -1355,8 +849,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1366,18 +860,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <f>((B10*60)/D3)</f>
-        <v>1414.71060526129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+        <v>1414.7106052612919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1387,14 +881,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="3">
         <v>1415</v>
       </c>
       <c r="C12" s="1">
         <f>((B12/60)*D3)</f>
-        <v>8.0016364886932</v>
+        <v>8.0016364886932028</v>
       </c>
     </row>
   </sheetData>
@@ -1404,33 +898,38 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" style="1" customWidth="1"/>
     <col min="5" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="17.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,8 +954,35 @@
       <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +1008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1506,8 +1032,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1517,8 +1043,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="3">
         <v>30</v>
       </c>
@@ -1527,8 +1053,8 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1538,8 +1064,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="3">
         <v>500</v>
       </c>
@@ -1553,32 +1079,37 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
-    <col min="8" max="8" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="3" width="20.08984375" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
+    <col min="5" max="6" width="20.36328125" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="27.08984375" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,8 +1134,35 @@
       <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="I1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1654,9 +1212,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1" ht="14" customHeight="1" spans="1:3">
-      <c r="A5" s="5" t="s">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1666,18 +1224,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="3">
         <v>30</v>
       </c>
       <c r="C6" s="1">
         <f>B6/(360/(D3*4096))+C3</f>
-        <v>5858.66666666667</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="5" t="s">
+        <v>5858.6666666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1687,8 +1245,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="3">
         <v>5000</v>
       </c>
@@ -1702,25 +1260,22 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/FRC调试表.xlsx
+++ b/FRC调试表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FRC\2022RapidReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD3822A-056D-4194-9C7D-8D5555A70729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C871CD5B-0760-4CF9-A2C4-129D28CE75C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shooter&amp;Blocker" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -378,16 +378,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,28 +737,28 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -819,7 +819,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3">
         <v>6400</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -840,7 +840,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3">
         <v>1000</v>
       </c>
@@ -850,7 +850,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -861,7 +861,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3">
         <v>1415</v>
       </c>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -954,31 +954,31 @@
       <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="D3" s="4">
         <f>60/32</f>
@@ -1033,7 +1033,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1044,17 +1044,17 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <f>B6/(360/(D3*4096))+C3</f>
-        <v>650</v>
+        <v>906.66666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1065,13 +1065,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3">
         <v>500</v>
       </c>
       <c r="C8" s="1">
         <f>(B8-C3)*(360/(D3*4096))</f>
-        <v>22.96875</v>
+        <v>-14.0625</v>
       </c>
     </row>
   </sheetData>
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1134,31 +1134,31 @@
       <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="4">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="D3" s="4">
         <f>140/10</f>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1225,17 +1225,17 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1">
         <f>B6/(360/(D3*4096))+C3</f>
-        <v>5858.6666666666661</v>
+        <v>29347</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1246,13 +1246,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3">
         <v>5000</v>
       </c>
       <c r="C8" s="1">
         <f>(B8-C3)*(360/(D3*4096))</f>
-        <v>24.609375</v>
+        <v>27.151925223214288</v>
       </c>
     </row>
   </sheetData>

--- a/FRC调试表.xlsx
+++ b/FRC调试表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FRC\2022RapidReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C871CD5B-0760-4CF9-A2C4-129D28CE75C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C279B7B-1BD1-419E-8C12-CE6380D04847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shooter&amp;Blocker" sheetId="1" r:id="rId1"/>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1016,11 +1016,12 @@
         <v>28</v>
       </c>
       <c r="C3" s="4">
-        <v>800</v>
+        <f>2932</f>
+        <v>2932</v>
       </c>
       <c r="D3" s="4">
-        <f>60/32</f>
-        <v>1.875</v>
+        <f>12.7</f>
+        <v>12.7</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1046,11 +1047,12 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="3">
-        <v>5</v>
+        <f>20</f>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <f>B6/(360/(D3*4096))+C3</f>
-        <v>906.66666666666663</v>
+        <v>5821.9555555555553</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1067,11 +1069,12 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="3">
-        <v>500</v>
+        <f>5402</f>
+        <v>5402</v>
       </c>
       <c r="C8" s="1">
         <f>(B8-C3)*(360/(D3*4096))</f>
-        <v>-14.0625</v>
+        <v>17.09368848425197</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
